--- a/src/main/webapp/appfront/assets/img/BulkFormat.xlsx
+++ b/src/main/webapp/appfront/assets/img/BulkFormat.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Agent Name</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Mobile No.</t>
-  </si>
-  <si>
-    <t>Pincode</t>
   </si>
   <si>
     <t>Circle</t>
@@ -148,24 +145,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,46 +183,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -259,9 +243,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -285,9 +266,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
